--- a/data/trans_dic/P22$ss-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9473929197990314</v>
+        <v>0.949090971108315</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9439706399685494</v>
+        <v>0.9454381805291274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9523958223511194</v>
+        <v>0.9530114247850018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9592846108381144</v>
+        <v>0.9577608446276279</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9380131136643542</v>
+        <v>0.9343269732206811</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9769887763023981</v>
+        <v>0.978045723142563</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9742376761724726</v>
+        <v>0.9729120262010355</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9802090399493559</v>
+        <v>0.9805505858170929</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9479083111357378</v>
+        <v>0.9478043956371126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9660858129318123</v>
+        <v>0.965803747436268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9686739725918841</v>
+        <v>0.968430568420263</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9715297638045169</v>
+        <v>0.9723486246295752</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9758286535524153</v>
+        <v>0.9772416929998681</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9777657856241793</v>
+        <v>0.9769944769834933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9813314366162256</v>
+        <v>0.9817431300286764</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9839718962271389</v>
+        <v>0.9840567069645618</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9682562096856605</v>
+        <v>0.9680776881221856</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9955880713507864</v>
+        <v>0.9955744186781017</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.993781735885637</v>
+        <v>0.9932593086783029</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9924734035765991</v>
+        <v>0.9926298594946774</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9698399445504333</v>
+        <v>0.9694371009672306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9842345612711711</v>
+        <v>0.9844141990802576</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.985581073729596</v>
+        <v>0.9852511794415849</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9862495278217599</v>
+        <v>0.9864962990464138</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.9601584882460121</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9674454433398112</v>
+        <v>0.9674454433398111</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9505286611112964</v>
+        <v>0.9500923138863296</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9373432443776228</v>
+        <v>0.9372902922010776</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9277177185517693</v>
+        <v>0.9286991821417059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9501945747447642</v>
+        <v>0.9497188133445784</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9444276193944262</v>
+        <v>0.9432570807458496</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9631056878881112</v>
+        <v>0.9650690243320291</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9628222704887986</v>
+        <v>0.9648119679611866</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9600192547290033</v>
+        <v>0.9596315325462171</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9521967208119085</v>
+        <v>0.9517115918086262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9550047372681073</v>
+        <v>0.9543052239009555</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.94997275786905</v>
+        <v>0.9498585369066249</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9578588259128562</v>
+        <v>0.9586525450806479</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9759464560368649</v>
+        <v>0.9763704345445494</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9669616814498999</v>
+        <v>0.9676227584496008</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9595409718384221</v>
+        <v>0.95890367582798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9774383384811417</v>
+        <v>0.9768762439425153</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9708427335133312</v>
+        <v>0.9704108780343159</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9849687100983834</v>
+        <v>0.9848893541726629</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9827273656229416</v>
+        <v>0.9831494602715244</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9768139029520533</v>
+        <v>0.9769291730295608</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9699626194491565</v>
+        <v>0.9704956850045657</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9734721406036831</v>
+        <v>0.9733531799623498</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9687789364584373</v>
+        <v>0.9679956640298352</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9745237936187328</v>
+        <v>0.9743420086639761</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9592518778139936</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9718572490418613</v>
+        <v>0.971857249041861</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.952582749622006</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9349401306110046</v>
+        <v>0.9363479801931341</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9244783576929511</v>
+        <v>0.9200151229812543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9632081210362818</v>
+        <v>0.9636768268313078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9412073422074613</v>
+        <v>0.9401300682552421</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9316192978182269</v>
+        <v>0.9317853451946687</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9166616851502413</v>
+        <v>0.9189604127027556</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9429025326595423</v>
+        <v>0.9424234788106854</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9605728880448644</v>
+        <v>0.9592420082458439</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9385464241056023</v>
+        <v>0.9387300557651799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9275336799017807</v>
+        <v>0.9277041409826826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9572675832386088</v>
+        <v>0.9574832917340943</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9549010193765819</v>
+        <v>0.9546882195890078</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9689584235751596</v>
+        <v>0.9699130223765394</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9627519585403855</v>
+        <v>0.9598567696090401</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9859821282043798</v>
+        <v>0.9861210334008985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9764510780855986</v>
+        <v>0.975738563861689</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9647222525769045</v>
+        <v>0.9649101089465522</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9576954009009891</v>
+        <v>0.9577646185207089</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.971280068092542</v>
+        <v>0.9727881326741482</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9803227003639416</v>
+        <v>0.9805891554555045</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9632997245163891</v>
+        <v>0.963134737407206</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9543542335437195</v>
+        <v>0.9547279491345008</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9764277792041045</v>
+        <v>0.9764680840378016</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9760073740556952</v>
+        <v>0.9754188459933203</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9254442228381483</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9508441099374129</v>
+        <v>0.9508441099374128</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9531946666837411</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9308006878622787</v>
+        <v>0.9292232080199959</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9343877317508924</v>
+        <v>0.9349729406516033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9071233750574668</v>
+        <v>0.9053754034341873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9352843785455225</v>
+        <v>0.9345580132582477</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9385734508487554</v>
+        <v>0.9371762889065856</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9360715128927192</v>
+        <v>0.9354646942284877</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9298631265372922</v>
+        <v>0.929487983679994</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9424942608841012</v>
+        <v>0.9419947985959742</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9386295256309344</v>
+        <v>0.9384735441371116</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9388526877982984</v>
+        <v>0.9391859490921524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9240968944341857</v>
+        <v>0.9249178747745034</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9430642248521359</v>
+        <v>0.9434406648516006</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9594447272910739</v>
+        <v>0.9592385626237948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9637309223649246</v>
+        <v>0.963878887531969</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9415180087920587</v>
+        <v>0.941218578096952</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9638572456970311</v>
+        <v>0.9630634095207719</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9653089800513265</v>
+        <v>0.9653887522749202</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.963683819119839</v>
+        <v>0.9640664753806321</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.958049942445408</v>
+        <v>0.9588691020213848</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9660113593078098</v>
+        <v>0.9654273737001388</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9574532420126221</v>
+        <v>0.9590979928216462</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9613269154519071</v>
+        <v>0.9608718635575918</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9472229704908779</v>
+        <v>0.9474008609878097</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9610018768541567</v>
+        <v>0.9609387751071421</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9515954647590791</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9619083425747701</v>
+        <v>0.9619083425747702</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9544765500765502</v>
@@ -1241,7 +1241,7 @@
         <v>0.9583738419370593</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9657572617396064</v>
+        <v>0.9657572617396059</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9493839119671962</v>
+        <v>0.9502506080233234</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9439607951321279</v>
+        <v>0.9442063685846567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9432054401060885</v>
+        <v>0.9431875412654169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9540040670453275</v>
+        <v>0.9542014120659532</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9469089977823972</v>
+        <v>0.9470478825646441</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9559400007053569</v>
+        <v>0.9560654682590035</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9578962820092572</v>
+        <v>0.9579074994260827</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9641132745697284</v>
+        <v>0.9635891255697051</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9505020273363908</v>
+        <v>0.9504289178138369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9527478867812453</v>
+        <v>0.9525985522300324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9529160318129805</v>
+        <v>0.9534782643318644</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9607290364309763</v>
+        <v>0.9617098517384145</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9640961156346951</v>
+        <v>0.9646783332474834</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9601721765670036</v>
+        <v>0.9601894539285974</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9590063049403162</v>
+        <v>0.9587959736979185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9687639038014335</v>
+        <v>0.9687058471535476</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.961179340605036</v>
+        <v>0.9613449595276896</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9697344348855507</v>
+        <v>0.9704120139096609</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9703071076162629</v>
+        <v>0.9711322988752402</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9741966838319767</v>
+        <v>0.9741308580848852</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9608768266558636</v>
+        <v>0.9611002982683936</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9631725685931765</v>
+        <v>0.962848447957984</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9627314810165738</v>
+        <v>0.9630861192409064</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9698289288510861</v>
+        <v>0.9702904492206458</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>655459</v>
+        <v>656634</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>664054</v>
+        <v>665086</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>641564</v>
+        <v>641979</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>662587</v>
+        <v>661535</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>644888</v>
+        <v>642354</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>681010</v>
+        <v>681747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>655505</v>
+        <v>654613</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>718604</v>
+        <v>718854</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1307507</v>
+        <v>1307363</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1353022</v>
+        <v>1352626</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1304291</v>
+        <v>1303964</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1383286</v>
+        <v>1384452</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>675133</v>
+        <v>676111</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>687828</v>
+        <v>687285</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>661056</v>
+        <v>661334</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>679639</v>
+        <v>679698</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>665680</v>
+        <v>665557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>693975</v>
+        <v>693965</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>668655</v>
+        <v>668304</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>727595</v>
+        <v>727710</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1337758</v>
+        <v>1337203</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1378439</v>
+        <v>1378691</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1327056</v>
+        <v>1326612</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1404245</v>
+        <v>1404596</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>913265</v>
+        <v>912846</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>953246</v>
+        <v>953192</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>947660</v>
+        <v>948662</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>996675</v>
+        <v>996176</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>914577</v>
+        <v>913444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>994102</v>
+        <v>996129</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1002305</v>
+        <v>1004376</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1028025</v>
+        <v>1027610</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1836969</v>
+        <v>1836033</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1956948</v>
+        <v>1955515</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1959322</v>
+        <v>1959086</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2030426</v>
+        <v>2032109</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>937686</v>
+        <v>938094</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>983367</v>
+        <v>984039</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>980167</v>
+        <v>979516</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1025252</v>
+        <v>1024662</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>940157</v>
+        <v>939739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1016669</v>
+        <v>1016587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1023026</v>
+        <v>1023465</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1046009</v>
+        <v>1046133</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1871243</v>
+        <v>1872272</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1994790</v>
+        <v>1994547</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1998109</v>
+        <v>1996494</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2065752</v>
+        <v>2065366</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>633499</v>
+        <v>634453</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>700406</v>
+        <v>697025</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>729829</v>
+        <v>730184</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>755858</v>
+        <v>754993</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>637079</v>
+        <v>637193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>712406</v>
+        <v>714192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>736512</v>
+        <v>736138</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>780234</v>
+        <v>779153</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1277759</v>
+        <v>1278009</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1423576</v>
+        <v>1423838</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1473061</v>
+        <v>1473393</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1542482</v>
+        <v>1542138</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>656549</v>
+        <v>657196</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>729403</v>
+        <v>727210</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>747085</v>
+        <v>747190</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>784161</v>
+        <v>783589</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>659717</v>
+        <v>659845</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>744296</v>
+        <v>744350</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>758679</v>
+        <v>759856</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>796276</v>
+        <v>796492</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1311458</v>
+        <v>1311234</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1464740</v>
+        <v>1465314</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1502545</v>
+        <v>1502607</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1576576</v>
+        <v>1575625</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>874860</v>
+        <v>873377</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>885556</v>
+        <v>886110</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>849614</v>
+        <v>847977</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>925990</v>
+        <v>925270</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>973706</v>
+        <v>972257</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>984655</v>
+        <v>984016</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>970572</v>
+        <v>970180</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1053005</v>
+        <v>1052447</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1855981</v>
+        <v>1855673</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1877367</v>
+        <v>1878034</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1830065</v>
+        <v>1831691</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1987333</v>
+        <v>1988127</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>901782</v>
+        <v>901588</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>913365</v>
+        <v>913506</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>881829</v>
+        <v>881548</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>954278</v>
+        <v>953492</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1001442</v>
+        <v>1001525</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1013700</v>
+        <v>1014102</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>999992</v>
+        <v>1000847</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1079279</v>
+        <v>1078627</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1893202</v>
+        <v>1896454</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1922308</v>
+        <v>1921398</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1875863</v>
+        <v>1876216</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2025134</v>
+        <v>2025001</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3104614</v>
+        <v>3107448</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3233819</v>
+        <v>3234660</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3196935</v>
+        <v>3196875</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3370269</v>
+        <v>3370966</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3197873</v>
+        <v>3198342</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3401530</v>
+        <v>3401976</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3389743</v>
+        <v>3389783</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3599481</v>
+        <v>3597524</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6318276</v>
+        <v>6317790</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6654093</v>
+        <v>6653050</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6601969</v>
+        <v>6605864</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6980873</v>
+        <v>6988000</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3152724</v>
+        <v>3154628</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3289356</v>
+        <v>3289415</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3250491</v>
+        <v>3249779</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3422412</v>
+        <v>3422207</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3246066</v>
+        <v>3246625</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3450615</v>
+        <v>3453026</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3433662</v>
+        <v>3436582</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3637127</v>
+        <v>3636882</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6387240</v>
+        <v>6388726</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6726900</v>
+        <v>6724637</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6669972</v>
+        <v>6672429</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>7046995</v>
+        <v>7050349</v>
       </c>
     </row>
     <row r="24">
